--- a/execution/RetroPE/groverWorst.xlsx
+++ b/execution/RetroPE/groverWorst.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabry/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabry/Desktop/research/Theseus/execution/RetroPE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE8261A-473D-F643-879B-7C8F75B94E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD1292F-8510-6344-B43D-6F8F0D156835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="21640" windowHeight="15300" xr2:uid="{EDEAFDEE-5FB0-9944-9591-BD5949737E5A}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="23740" windowHeight="15740" xr2:uid="{EDEAFDEE-5FB0-9944-9591-BD5949737E5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,8 +48,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -77,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,49 +366,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.04</c:v>
-                </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.11</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.42</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.78</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.66</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.3</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.54</c:v>
+                  <c:v>3.41</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14.1</c:v>
+                  <c:v>6.92</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31.6</c:v>
+                  <c:v>15.04</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>68.88</c:v>
+                  <c:v>35.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>214.85</c:v>
+                  <c:v>131.07</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>536.86</c:v>
+                  <c:v>368.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -425,7 +434,9 @@
       <c:valAx>
         <c:axId val="2086763903"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -464,8 +475,21 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number of items N</a:t>
+                  <a:t>Number of items</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" i="1" baseline="0"/>
+                  <a:t>N</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (log)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" i="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -498,7 +522,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -536,12 +560,13 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2078606207"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="1.0000000000000002E-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2078606207"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -581,7 +606,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>CPU time in seconds</a:t>
+                  <a:t>CPU time in seconds (log)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1602,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310DCEC4-ACF8-9940-B795-06B6C6C375FF}">
-  <dimension ref="A22:C51"/>
+  <dimension ref="A22:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1798,7 +1823,7 @@
         <v>16384</v>
       </c>
       <c r="C37">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1810,7 +1835,7 @@
         <v>32768</v>
       </c>
       <c r="C38">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1822,7 +1847,7 @@
         <v>65536</v>
       </c>
       <c r="C39">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1834,7 +1859,7 @@
         <v>131072</v>
       </c>
       <c r="C40">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1846,7 +1871,7 @@
         <v>262144</v>
       </c>
       <c r="C41">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1858,7 +1883,7 @@
         <v>524288</v>
       </c>
       <c r="C42">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1870,7 +1895,7 @@
         <v>1048576</v>
       </c>
       <c r="C43">
-        <v>0.78</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1882,7 +1907,7 @@
         <v>2097152</v>
       </c>
       <c r="C44">
-        <v>1.66</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1894,7 +1919,7 @@
         <v>4194304</v>
       </c>
       <c r="C45">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1906,7 +1931,7 @@
         <v>8388608</v>
       </c>
       <c r="C46">
-        <v>6.54</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1918,7 +1943,7 @@
         <v>16777216</v>
       </c>
       <c r="C47">
-        <v>14.1</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1930,10 +1955,10 @@
         <v>33554432</v>
       </c>
       <c r="C48">
-        <v>31.6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>26</v>
       </c>
@@ -1942,10 +1967,10 @@
         <v>67108864</v>
       </c>
       <c r="C49">
-        <v>68.88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>27</v>
       </c>
@@ -1954,10 +1979,10 @@
         <v>134217728</v>
       </c>
       <c r="C50">
-        <v>214.85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>131.07</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>28</v>
       </c>
@@ -1966,8 +1991,11 @@
         <v>268435456</v>
       </c>
       <c r="C51">
-        <v>536.86</v>
-      </c>
+        <v>368.21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/execution/RetroPE/groverWorst.xlsx
+++ b/execution/RetroPE/groverWorst.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabry/Desktop/research/Theseus/execution/RetroPE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD1292F-8510-6344-B43D-6F8F0D156835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914EC7E3-AE35-A34C-8203-C87CBB8E1AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="23740" windowHeight="15740" xr2:uid="{EDEAFDEE-5FB0-9944-9591-BD5949737E5A}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="23620" windowHeight="15240" xr2:uid="{EDEAFDEE-5FB0-9944-9591-BD5949737E5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>N</t>
   </si>
@@ -41,7 +41,16 @@
     <t>n</t>
   </si>
   <si>
-    <t>CPU time</t>
+    <t>u=0</t>
+  </si>
+  <si>
+    <t>u=2^n-1</t>
+  </si>
+  <si>
+    <t>u=10</t>
+  </si>
+  <si>
+    <t>u=2^(n/3)</t>
   </si>
 </sst>
 </file>
@@ -140,11 +149,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Grover</a:t>
+              <a:t>Execution</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> search (worst case)</a:t>
+              <a:t> times</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> for</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Grover search</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -194,7 +211,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CPU time</c:v>
+                  <c:v>u=0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -221,6 +238,21 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$23:$B$51</c:f>
@@ -416,7 +448,741 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3979-1C41-A817-F30910C0BDF2}"/>
+              <c16:uniqueId val="{00000000-3A0E-BB4F-82D1-CE19EB8AAC17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>u=2^(n/3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>268435456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$23:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.33</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15.71</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>31.79</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>147.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A0E-BB4F-82D1-CE19EB8AAC17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>u=10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>268435456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$23:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.19</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.72</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.51</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3A0E-BB4F-82D1-CE19EB8AAC17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>u=2^n-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>268435456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$23:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3A0E-BB4F-82D1-CE19EB8AAC17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -428,15 +1194,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2086763903"/>
-        <c:axId val="2078606207"/>
+        <c:axId val="2074169007"/>
+        <c:axId val="2074169407"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2086763903"/>
+        <c:axId val="2074169007"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -475,21 +1239,12 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number of items</a:t>
+                  <a:t>Number of items </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" i="1" baseline="0"/>
+                  <a:rPr lang="en-US" i="1"/>
                   <a:t>N</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (log)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" i="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -523,7 +1278,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -559,14 +1314,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2078606207"/>
-        <c:crossesAt val="1.0000000000000002E-2"/>
+        <c:crossAx val="2074169407"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2078606207"/>
+        <c:axId val="2074169407"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -606,8 +1360,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>CPU time in seconds (log)</a:t>
+                  <a:t>CPU time</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -677,7 +1436,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086763903"/>
+        <c:crossAx val="2074169007"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -689,6 +1448,49 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1293,23 +2095,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3BDB426-6724-6679-3CF7-9FB099FBE045}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3834302A-E2AC-8A02-DE89-74CC68D4A0FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1327,6 +2129,61 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6411763-9DEE-55BE-5C8F-9B09FD0B2F26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4889500" y="6134100"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1627,15 +2484,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310DCEC4-ACF8-9940-B795-06B6C6C375FF}">
-  <dimension ref="A22:I52"/>
+  <dimension ref="A22:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="D24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1645,8 +2502,17 @@
       <c r="C22" t="s">
         <v>2</v>
       </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1657,8 +2523,17 @@
       <c r="C23">
         <v>0</v>
       </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1669,8 +2544,17 @@
       <c r="C24">
         <v>0</v>
       </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1681,8 +2565,17 @@
       <c r="C25">
         <v>0</v>
       </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1693,8 +2586,17 @@
       <c r="C26">
         <v>0</v>
       </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1705,8 +2607,17 @@
       <c r="C27">
         <v>0</v>
       </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -1717,8 +2628,17 @@
       <c r="C28">
         <v>0</v>
       </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6</v>
       </c>
@@ -1729,8 +2649,17 @@
       <c r="C29">
         <v>0</v>
       </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>7</v>
       </c>
@@ -1741,8 +2670,17 @@
       <c r="C30">
         <v>0</v>
       </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>8</v>
       </c>
@@ -1753,8 +2691,17 @@
       <c r="C31">
         <v>0</v>
       </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>9</v>
       </c>
@@ -1765,8 +2712,17 @@
       <c r="C32">
         <v>0</v>
       </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>10</v>
       </c>
@@ -1777,8 +2733,17 @@
       <c r="C33">
         <v>0</v>
       </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>11</v>
       </c>
@@ -1789,8 +2754,17 @@
       <c r="C34">
         <v>0</v>
       </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>12</v>
       </c>
@@ -1801,8 +2775,17 @@
       <c r="C35">
         <v>0</v>
       </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>13</v>
       </c>
@@ -1813,8 +2796,17 @@
       <c r="C36">
         <v>0</v>
       </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>14</v>
       </c>
@@ -1825,8 +2817,17 @@
       <c r="C37">
         <v>0</v>
       </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>15</v>
       </c>
@@ -1837,8 +2838,17 @@
       <c r="C38">
         <v>0.01</v>
       </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>16</v>
       </c>
@@ -1849,8 +2859,17 @@
       <c r="C39">
         <v>0.02</v>
       </c>
+      <c r="D39">
+        <v>0.01</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>17</v>
       </c>
@@ -1861,8 +2880,17 @@
       <c r="C40">
         <v>0.05</v>
       </c>
+      <c r="D40">
+        <v>0.02</v>
+      </c>
+      <c r="E40">
+        <v>0.01</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>18</v>
       </c>
@@ -1873,8 +2901,17 @@
       <c r="C41">
         <v>0.11</v>
       </c>
+      <c r="D41">
+        <v>0.05</v>
+      </c>
+      <c r="E41">
+        <v>0.02</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>19</v>
       </c>
@@ -1885,8 +2922,17 @@
       <c r="C42">
         <v>0.2</v>
       </c>
+      <c r="D42">
+        <v>0.09</v>
+      </c>
+      <c r="E42">
+        <v>0.05</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>20</v>
       </c>
@@ -1897,8 +2943,17 @@
       <c r="C43">
         <v>0.39</v>
       </c>
+      <c r="D43">
+        <v>0.2</v>
+      </c>
+      <c r="E43">
+        <v>0.09</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>21</v>
       </c>
@@ -1909,8 +2964,17 @@
       <c r="C44">
         <v>0.79</v>
       </c>
+      <c r="D44">
+        <v>0.43</v>
+      </c>
+      <c r="E44">
+        <v>0.2</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>22</v>
       </c>
@@ -1921,8 +2985,17 @@
       <c r="C45">
         <v>1.7</v>
       </c>
+      <c r="D45">
+        <v>0.75</v>
+      </c>
+      <c r="E45">
+        <v>0.41</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>23</v>
       </c>
@@ -1933,8 +3006,17 @@
       <c r="C46">
         <v>3.41</v>
       </c>
+      <c r="D46">
+        <v>1.65</v>
+      </c>
+      <c r="E46">
+        <v>0.75</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>24</v>
       </c>
@@ -1945,8 +3027,17 @@
       <c r="C47">
         <v>6.92</v>
       </c>
+      <c r="D47">
+        <v>3.18</v>
+      </c>
+      <c r="E47">
+        <v>1.54</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>25</v>
       </c>
@@ -1957,8 +3048,17 @@
       <c r="C48">
         <v>15.04</v>
       </c>
+      <c r="D48">
+        <v>7.33</v>
+      </c>
+      <c r="E48">
+        <v>3.19</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>26</v>
       </c>
@@ -1969,8 +3069,17 @@
       <c r="C49">
         <v>35.799999999999997</v>
       </c>
+      <c r="D49">
+        <v>15.71</v>
+      </c>
+      <c r="E49">
+        <v>6.72</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>27</v>
       </c>
@@ -1981,8 +3090,17 @@
       <c r="C50">
         <v>131.07</v>
       </c>
+      <c r="D50">
+        <v>31.79</v>
+      </c>
+      <c r="E50">
+        <v>12.51</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>28</v>
       </c>
@@ -1993,9 +3111,18 @@
       <c r="C51">
         <v>368.21</v>
       </c>
+      <c r="D51">
+        <v>147.12</v>
+      </c>
+      <c r="E51">
+        <v>35.79</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I52" s="1"/>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
